--- a/src/main/resources/data/plantList.xlsx
+++ b/src/main/resources/data/plantList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9033F968-991D-4F0A-AB97-2CEA0DC7BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED64862-A58B-4EDF-A618-63AC74BE8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>season</t>
   </si>
   <si>
-    <t>imageUrl</t>
-  </si>
-  <si>
     <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,9 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 예정</t>
-  </si>
-  <si>
     <t>가지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,71 +124,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Lettuce</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean Melon</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>가지과</t>
+  </si>
+  <si>
+    <t>박과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국화과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄, 가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 ~ 초가을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄 ~ 초여름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Strawberry</t>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Zucchini</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean Melon</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Grape</t>
-  </si>
-  <si>
-    <t>가지과</t>
-  </si>
-  <si>
-    <t>박과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장미과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국화과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포도과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄, 가을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여름 ~ 초가을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄 ~ 초여름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +580,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -606,253 +601,211 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/src/main/resources/data/plantList.xlsx
+++ b/src/main/resources/data/plantList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED64862-A58B-4EDF-A618-63AC74BE8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7FFBC-C665-4F23-8FB7-991EB2B82E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
+    <workbookView xWindow="4260" yWindow="790" windowWidth="20060" windowHeight="13940" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>englishName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -190,6 +183,14 @@
   </si>
   <si>
     <t>Strawberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantEnglishName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,222 +591,222 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/src/main/resources/data/plantList.xlsx
+++ b/src/main/resources/data/plantList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B7FFBC-C665-4F23-8FB7-991EB2B82E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E70EB-9A61-4E48-B1D5-F7F391B94C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="790" windowWidth="20060" windowHeight="13940" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
+    <workbookView xWindow="4480" yWindow="1340" windowWidth="20060" windowHeight="13940" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>species</t>
   </si>
@@ -48,9 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -106,39 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eggplant</t>
-  </si>
-  <si>
-    <t>Chili Pepper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumpkin(Kabocha)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lettuce</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>Zucchini</t>
-  </si>
-  <si>
-    <t>Cucumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean Melon</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Grape</t>
-  </si>
-  <si>
     <t>가지과</t>
   </si>
   <si>
@@ -182,15 +146,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Strawberry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plantName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>plantEnglishName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggplant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpkin(kabocha)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lettuce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zucchini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean zucchini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pepper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>korean melon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +593,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -591,10 +603,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -608,205 +620,205 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/src/main/resources/data/plantList.xlsx
+++ b/src/main/resources/data/plantList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E70EB-9A61-4E48-B1D5-F7F391B94C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D113C7D-369B-4DD8-B6D3-8719B256D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4480" yWindow="1340" windowWidth="20060" windowHeight="13940" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>species</t>
   </si>
@@ -203,6 +203,58 @@
   </si>
   <si>
     <t>korean melon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plantImageUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EA%B0%80%EC%A7%80.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EA%B3%A0%EC%B6%94.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EB%8B%A8%ED%98%B8%EB%B0%95.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EB%94%B8%EA%B8%B0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%83%81%EC%B6%94.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%88%98%EB%B0%95.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%95%A0%ED%98%B8%EB%B0%95.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%A5%AC%ED%82%A4%EB%8B%88%ED%98%B8%EB%B0%95.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%98%A4%EC%9D%B4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%B0%B8%EC%99%B8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%ED%86%A0%EB%A7%88%ED%86%A0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%ED%8F%AC%EB%8F%84.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +645,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -614,6 +666,9 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -644,6 +699,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -660,6 +718,9 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -676,6 +737,9 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -692,6 +756,9 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -708,6 +775,9 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -724,6 +794,9 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -740,6 +813,9 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -756,6 +832,9 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -772,6 +851,9 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -788,6 +870,9 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -804,6 +889,9 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -819,6 +907,9 @@
       </c>
       <c r="D14" t="s">
         <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/src/main/resources/data/plantList.xlsx
+++ b/src/main/resources/data/plantList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\farming-fam\gardendoctor-backend\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D113C7D-369B-4DD8-B6D3-8719B256D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279BDB0-439C-4DAC-9F29-91C8775226AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1340" windowWidth="20060" windowHeight="13940" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{AB312741-AC70-4140-9B71-D94D9CE3C86C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>species</t>
   </si>
@@ -210,52 +210,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EA%B0%80%EC%A7%80.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EA%B3%A0%EC%B6%94.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EB%8B%A8%ED%98%B8%EB%B0%95.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EB%94%B8%EA%B8%B0.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%83%81%EC%B6%94.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%88%98%EB%B0%95.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%95%A0%ED%98%B8%EB%B0%95.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%A5%AC%ED%82%A4%EB%8B%88%ED%98%B8%EB%B0%95.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%98%A4%EC%9D%B4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%EC%B0%B8%EC%99%B8.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%ED%86%A0%EB%A7%88%ED%86%A0.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/%ED%8F%AC%EB%8F%84.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>originalImageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지.png</t>
+  </si>
+  <si>
+    <t>고추.png</t>
+  </si>
+  <si>
+    <t>단호박.png</t>
+  </si>
+  <si>
+    <t>딸기.png</t>
+  </si>
+  <si>
+    <t>상추.png</t>
+  </si>
+  <si>
+    <t>수박.png</t>
+  </si>
+  <si>
+    <t>애호박.png</t>
+  </si>
+  <si>
+    <t>오이.png</t>
+  </si>
+  <si>
+    <t>쥬키니호박.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참외.png</t>
+  </si>
+  <si>
+    <t>토마토.png</t>
+  </si>
+  <si>
+    <t>포도.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/2/8faabe47-f0a0-4845-8bff-db1dbfb90980.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/3/d546b3bc-927a-42d5-a26e-71022a8a735b.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/4/c403e1f7-d46f-4fa7-8156-c021998bd3ee.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/5/5bb31cc5-ea8d-45be-aa8b-6bd2e0d43ee2.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/6/0c8306e1-5b8d-4a27-bdf9-6376d5de1b04.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/7/60b4beb0-695c-4762-952c-4754a85d6684.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/8/ac217782-b598-4b03-8ab9-40a661c9adb4.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/9/53f94bf9-1676-4b58-aa99-3d258172f3f6.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/10/6d9e4ec0-d63f-4c33-90ce-bd3f7c217c2e.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/11/8fb211c2-de36-4653-a1fa-246b8e967cc1.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/12/a13d7b2d-6d3c-4936-b186-bcbb5a688709.png</t>
+  </si>
+  <si>
+    <t>https://aws-bucket-farming-family-25078.s3.ap-northeast-2.amazonaws.com/plant/13/bb72e447-1e52-49e7-aeae-ddcecb5a2e55.png</t>
   </si>
 </sst>
 </file>
@@ -645,7 +677,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -667,6 +699,9 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -700,9 +735,11 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -719,9 +756,11 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -738,9 +777,11 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -757,9 +798,11 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -776,9 +819,11 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -795,9 +840,11 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -814,9 +861,11 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -833,9 +882,11 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -854,7 +905,9 @@
       <c r="E11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -871,9 +924,11 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -890,9 +945,11 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -909,9 +966,11 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
   </sheetData>
